--- a/SESPaymntPlan.xlsx
+++ b/SESPaymntPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43630EA-FF1F-49E6-98D4-5E97ED8645E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402DCFC1-E38F-43ED-A799-2E7CD3C4FCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -253,7 +259,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K16" totalsRowShown="0">
-  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -558,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -652,7 +664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -666,7 +678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -680,7 +692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>30</v>
       </c>
@@ -717,7 +729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>19</v>
       </c>
@@ -751,10 +763,10 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>18</v>
       </c>
@@ -768,7 +780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>22</v>
       </c>
@@ -782,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>26</v>
       </c>
@@ -796,7 +808,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
@@ -830,10 +845,10 @@
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>19</v>
       </c>
@@ -844,7 +859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>23</v>
       </c>

--- a/SESPaymntPlan.xlsx
+++ b/SESPaymntPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402DCFC1-E38F-43ED-A799-2E7CD3C4FCAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D449A6-FE27-4A1C-8AED-E06F50DE38F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +768,9 @@
       <c r="I9" t="s">
         <v>56</v>
       </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
@@ -846,6 +852,9 @@
       </c>
       <c r="I14" t="s">
         <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">

--- a/SESPaymntPlan.xlsx
+++ b/SESPaymntPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D449A6-FE27-4A1C-8AED-E06F50DE38F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CF3C66-1096-4978-878A-11D5D615D63D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -188,12 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -574,7 +568,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,10 +760,7 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -851,10 +842,7 @@
         <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
